--- a/GaTech/CS6750/Assignment M5/Cognitive Walkthrough.xlsx
+++ b/GaTech/CS6750/Assignment M5/Cognitive Walkthrough.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\starpageup\Downloads\CS6750\Assignment M5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Starpageup_Public\Starpageup_Public\GaTech\CS6750\Assignment M5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36284455-D7BD-4D2B-874D-4F3522973D1B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3140C7CC-108B-4758-BF22-A0A147EDCE5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -165,11 +165,6 @@
   </si>
   <si>
     <t>Yes. Choosing the Menu Item  would be a correct action for Retrieving Notes.</t>
-  </si>
-  <si>
-    <t>Open Minimal UI by
-Method 1. Click on OneNote Menu item in Right Click menu of Original Application
-Method 2. Use Short Keys: Windows + C</t>
   </si>
   <si>
     <t>Yes. Info on Shortcut Keys for Minimal UI would be available in Main UI as Quick Help / Tooltips. Also Shortcut Keys follow simple combination, Windows + V which is similar to Ctrl + V to paste, so this is easy to remember.</t>
@@ -410,6 +405,11 @@
   <si>
     <t>Ordering Notes in order of Recent First and Scroll functionality provide Users quick gaze into existing Notes.</t>
   </si>
+  <si>
+    <t>Open Minimal UI by
+Method 1. Click on OneNote Menu item in Right Click menu of Original Application
+Method 2. Use Short Keys: Windows + V</t>
+  </si>
 </sst>
 </file>
 
@@ -539,12 +539,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -552,6 +546,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1063,28 +1063,28 @@
   <sheetData>
     <row r="1" spans="1:29" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="19"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="17"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
       <c r="R1" s="1"/>
       <c r="S1" s="3" t="s">
         <v>1</v>
@@ -1103,35 +1103,35 @@
     <row r="2" spans="1:29" ht="84.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
       <c r="B2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="D2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="K2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="L2" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="M2" s="6"/>
       <c r="N2" s="5" t="s">
@@ -1199,46 +1199,46 @@
         <v>29</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="13" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="K4" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="L4" s="13" t="s">
         <v>76</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>77</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="13" t="s">
         <v>40</v>
       </c>
       <c r="O4" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="9"/>
@@ -1258,28 +1258,28 @@
         <v>36</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
       <c r="M5" s="1"/>
       <c r="N5" s="14" t="s">
         <v>41</v>
@@ -1288,7 +1288,7 @@
         <v>42</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="9"/>
       <c r="R5" s="1"/>
@@ -1315,28 +1315,28 @@
         <v>38</v>
       </c>
       <c r="D6" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="F6" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="13" t="s">
-        <v>85</v>
-      </c>
       <c r="G6" s="1"/>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
       <c r="M6" s="1"/>
       <c r="N6" s="9"/>
       <c r="O6" s="9"/>
       <c r="P6" s="9"/>
       <c r="Q6" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="9"/>
@@ -1359,32 +1359,32 @@
         <v>39</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="13" t="s">
         <v>39</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="K7" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="9"/>
@@ -1410,21 +1410,21 @@
       <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="19"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1445,49 +1445,49 @@
     </row>
     <row r="9" spans="1:29" ht="120" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="J9" s="13" t="s">
-        <v>75</v>
-      </c>
       <c r="K9" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="13" t="s">
         <v>40</v>
       </c>
       <c r="O9" s="13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="9"/>
@@ -1504,39 +1504,39 @@
     </row>
     <row r="10" spans="1:29" ht="126" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="E10" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="F10" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="13" t="s">
-        <v>98</v>
+      <c r="G10" s="1"/>
+      <c r="H10" s="18" t="s">
+        <v>47</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="1"/>
       <c r="N10" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="O10" s="9"/>
       <c r="P10" s="9"/>
       <c r="Q10" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="9"/>
@@ -1553,37 +1553,37 @@
     </row>
     <row r="11" spans="1:29" ht="120.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>99</v>
+      <c r="G11" s="1"/>
+      <c r="H11" s="18" t="s">
+        <v>47</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="1"/>
       <c r="N11" s="9"/>
       <c r="O11" s="9"/>
       <c r="P11" s="9"/>
       <c r="Q11" s="13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="9"/>
@@ -1600,40 +1600,40 @@
     </row>
     <row r="12" spans="1:29" ht="125.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>110</v>
+      <c r="F12" s="13" t="s">
+        <v>101</v>
       </c>
-      <c r="C12" s="13" t="s">
-        <v>109</v>
+      <c r="G12" s="1"/>
+      <c r="H12" s="18" t="s">
+        <v>47</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="13" t="s">
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="13" t="s">
-        <v>103</v>
-      </c>
       <c r="O12" s="13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P12" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Q12" s="9"/>
       <c r="R12" s="1"/>
@@ -1651,45 +1651,45 @@
     </row>
     <row r="13" spans="1:29" ht="61.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="C13" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>58</v>
-      </c>
       <c r="E13" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J13" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="9"/>
       <c r="O13" s="9"/>
       <c r="P13" s="9"/>
       <c r="Q13" s="13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="9"/>
@@ -32272,16 +32272,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H12:L12"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="H8:L8"/>
+    <mergeCell ref="H11:L11"/>
+    <mergeCell ref="H10:L10"/>
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="H5:L5"/>
     <mergeCell ref="H6:L6"/>
-    <mergeCell ref="H12:L12"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="H8:L8"/>
-    <mergeCell ref="H11:L11"/>
-    <mergeCell ref="H10:L10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
